--- a/vaccine_list/Status_of_COVID-19_Vaccines_within_WHO_EUL_PQ_evaluation_process.xlsx
+++ b/vaccine_list/Status_of_COVID-19_Vaccines_within_WHO_EUL_PQ_evaluation_process.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dantes/Desktop/Status of COVID-19 Vaccines within WHO EUL:"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dantes/web_local/SARS-CoV-2-VOC.github.io/vaccine_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865F5A9A-1C58-1648-AAD4-F709057E7338}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D9E83-F427-B047-970B-D1D4877BDBF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1320" windowWidth="20680" windowHeight="12800" xr2:uid="{0103D78F-211F-DD41-B0D7-2AFBAE81FDA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="90">
   <si>
     <t xml:space="preserve">Manufacturer / WHO EUL holder </t>
   </si>
@@ -285,9 +285,6 @@
     <t>BNT162b2 (COMIRNATY Tozinameran (INN))</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>Anticipated decision date</t>
+  </si>
+  <si>
+    <t>---:</t>
+  </si>
+  <si>
+    <t>:---</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1222,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="W18" sqref="C1:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1253,7 @@
         <v>81</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>81</v>
@@ -1292,19 +1295,19 @@
         <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>81</v>
@@ -1319,61 +1322,61 @@
         <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>81</v>
